--- a/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T13:17:44+00:00</t>
+    <t>2025-02-26T09:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-LokalLegemiddelkatalogValues.xlsx
+++ b/ValueSet-LokalLegemiddelkatalogValues.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T09:37:05+00:00</t>
+    <t>2025-03-18T14:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -424,47 +423,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>